--- a/data/cuadros/Comercio, Hoteles y Restaurantes/bh.xlsx
+++ b/data/cuadros/Comercio, Hoteles y Restaurantes/bh.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
   <si>
     <t>Participación del empleo del sector en la región</t>
   </si>
@@ -160,13 +160,76 @@
   </si>
   <si>
     <t>1.6. Participación del PIB del sector Comercio, Hoteles y Restaurantes en el PIB regional y participación del sector en el empleo regional, 2014. Por región de trabajo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Participación del empleo del sector en la región</t>
+  </si>
+  <si>
+    <t>Región de trabajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 </t>
+  </si>
+  <si>
+    <t>1.6. Participación del PIB del sector Comercio, Hoteles y Restaurantes en el PIB regionaly participación del sector en el empleo regional, 2014.Por región de trabajo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="196">
+  <fonts count="391">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -952,8 +1015,789 @@
       <name val="Times New Roman"/>
       <b/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <b/>
+    </font>
   </fonts>
-  <fills count="65">
+  <fills count="128">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1275,8 +2119,323 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="146">
+  <borders count="291">
     <border>
       <left/>
       <right/>
@@ -2329,11 +3488,1056 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -2912,6 +5116,586 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="195" fillId="0" borderId="145" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="146" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="147" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="148" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="149" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="150" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="151" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="152" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="153" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="154" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="155" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="156" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="157" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="158" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="159" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="160" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="161" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="162" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="163" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="164" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="165" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="166" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="167" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="168" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="169" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="170" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="171" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="172" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="173" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="174" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="175" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="176" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="177" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="178" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="179" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="180" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="181" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="182" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="183" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="184" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="185" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="186" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="187" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="188" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="189" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="190" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="191" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="192" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="193" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="194" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="195" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="196" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="197" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="198" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="199" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="0" borderId="200" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="0" borderId="201" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="0" borderId="202" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="203" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="204" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="0" borderId="205" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="206" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="207" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="208" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="0" borderId="209" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="0" borderId="210" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="211" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="212" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="0" borderId="213" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="214" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="215" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="216" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="217" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="0" borderId="218" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="219" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="220" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="221" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="222" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="223" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="224" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="225" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="65" borderId="226" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="66" borderId="227" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="67" borderId="228" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="68" borderId="229" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="69" borderId="230" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="70" borderId="231" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="71" borderId="232" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="72" borderId="233" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="73" borderId="234" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="74" borderId="235" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="75" borderId="236" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="76" borderId="237" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="77" borderId="238" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="78" borderId="239" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="79" borderId="240" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="80" borderId="241" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="81" borderId="242" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="82" borderId="243" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="83" borderId="244" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="84" borderId="245" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="85" borderId="246" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="86" borderId="247" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="87" borderId="248" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="88" borderId="249" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="89" borderId="250" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="90" borderId="251" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="91" borderId="252" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="92" borderId="253" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="93" borderId="254" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="94" borderId="255" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="95" borderId="256" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="96" borderId="257" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="97" borderId="258" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="98" borderId="259" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="99" borderId="260" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="100" borderId="261" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="101" borderId="262" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="102" borderId="263" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="103" borderId="264" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="104" borderId="265" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="105" borderId="266" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="106" borderId="267" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="107" borderId="268" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="108" borderId="269" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="109" borderId="270" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="110" borderId="271" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="111" borderId="272" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="112" borderId="273" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="113" borderId="274" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="114" borderId="275" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="115" borderId="276" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="116" borderId="277" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="117" borderId="278" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="118" borderId="279" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="119" borderId="280" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="120" borderId="281" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="121" borderId="282" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="122" borderId="283" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="123" borderId="284" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="124" borderId="285" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="125" borderId="286" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="126" borderId="287" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="127" borderId="288" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="289" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="290" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2928,182 +5712,184 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="145" t="s">
-        <v>48</v>
+      <c r="A1" s="290" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="141" t="s">
-        <v>2</v>
+      <c r="A2" s="286" t="s">
+        <v>50</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="143" t="s">
+      <c r="B2" s="287" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" s="288" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="229" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="85" t="s">
-        <v>18</v>
+      <c r="B3" s="230" t="s">
+        <v>51</v>
       </c>
-      <c r="C3" s="86" t="s">
-        <v>33</v>
+      <c r="C3" s="231" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="232" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="88" t="s">
-        <v>19</v>
+      <c r="B4" s="233" t="s">
+        <v>52</v>
       </c>
-      <c r="C4" s="89" t="s">
-        <v>34</v>
+      <c r="C4" s="234" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="91" t="s">
-        <v>20</v>
+      <c r="B5" s="236" t="s">
+        <v>53</v>
       </c>
-      <c r="C5" s="92" t="s">
-        <v>35</v>
+      <c r="C5" s="237" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="238" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="94" t="s">
-        <v>21</v>
+      <c r="B6" s="239" t="s">
+        <v>54</v>
       </c>
-      <c r="C6" s="95" t="s">
-        <v>36</v>
+      <c r="C6" s="240" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="241" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="97" t="s">
-        <v>22</v>
+      <c r="B7" s="242" t="s">
+        <v>55</v>
       </c>
-      <c r="C7" s="98" t="s">
-        <v>37</v>
+      <c r="C7" s="243" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="244" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="100" t="s">
-        <v>23</v>
+      <c r="B8" s="245" t="s">
+        <v>56</v>
       </c>
-      <c r="C8" s="101" t="s">
-        <v>38</v>
+      <c r="C8" s="246" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="247" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="103" t="s">
-        <v>24</v>
+      <c r="B9" s="248" t="s">
+        <v>57</v>
       </c>
-      <c r="C9" s="104" t="s">
-        <v>39</v>
+      <c r="C9" s="249" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="106" t="s">
-        <v>25</v>
+      <c r="B10" s="251" t="s">
+        <v>54</v>
       </c>
-      <c r="C10" s="107" t="s">
-        <v>40</v>
+      <c r="C10" s="252" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="253" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="109" t="s">
-        <v>26</v>
+      <c r="B11" s="254" t="s">
+        <v>55</v>
       </c>
-      <c r="C11" s="110" t="s">
-        <v>41</v>
+      <c r="C11" s="255" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="256" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="112" t="s">
-        <v>27</v>
+      <c r="B12" s="257" t="s">
+        <v>56</v>
       </c>
-      <c r="C12" s="113" t="s">
-        <v>42</v>
+      <c r="C12" s="258" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="259" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="115" t="s">
-        <v>28</v>
+      <c r="B13" s="260" t="s">
+        <v>58</v>
       </c>
-      <c r="C13" s="116" t="s">
-        <v>43</v>
+      <c r="C13" s="261" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="262" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="118" t="s">
-        <v>29</v>
+      <c r="B14" s="263" t="s">
+        <v>58</v>
       </c>
-      <c r="C14" s="119" t="s">
-        <v>44</v>
+      <c r="C14" s="264" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="265" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="121" t="s">
-        <v>30</v>
+      <c r="B15" s="266" t="s">
+        <v>55</v>
       </c>
-      <c r="C15" s="122" t="s">
-        <v>45</v>
+      <c r="C15" s="267" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="135" t="s">
+      <c r="A16" s="280" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="136" t="s">
-        <v>31</v>
+      <c r="B16" s="281" t="s">
+        <v>54</v>
       </c>
-      <c r="C16" s="137" t="s">
-        <v>46</v>
+      <c r="C16" s="282" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="139" t="s">
-        <v>32</v>
+      <c r="B17" s="284" t="s">
+        <v>59</v>
       </c>
-      <c r="C17" s="140" t="s">
-        <v>47</v>
+      <c r="C17" s="285" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/cuadros/Comercio, Hoteles y Restaurantes/bh.xlsx
+++ b/data/cuadros/Comercio, Hoteles y Restaurantes/bh.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="128">
   <si>
     <t>Participación del empleo del sector en la región</t>
   </si>
@@ -396,12 +396,15 @@
   <si>
     <t xml:space="preserve">20,3 </t>
   </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1561">
+  <fonts count="1760">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -6654,8 +6657,809 @@
       <name val="Times New Roman"/>
       <b/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
-  <fills count="506">
+  <fills count="569">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9182,8 +9986,323 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1161">
+  <borders count="1308">
     <border>
       <left/>
       <right/>
@@ -17551,11 +18670,1070 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1161">
+  <cellXfs count="1308">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -22194,6 +24372,594 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="1560" fillId="0" borderId="1160" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1561" fillId="0" borderId="1161" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1562" fillId="0" borderId="1162" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1563" fillId="0" borderId="1163" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1564" fillId="0" borderId="1164" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1565" fillId="0" borderId="1165" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1566" fillId="0" borderId="1166" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1567" fillId="0" borderId="1167" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1568" fillId="0" borderId="1168" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1569" fillId="0" borderId="1169" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1570" fillId="0" borderId="1170" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1571" fillId="0" borderId="1171" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1572" fillId="0" borderId="1172" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1573" fillId="0" borderId="1173" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1574" fillId="0" borderId="1174" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1575" fillId="0" borderId="1175" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1576" fillId="0" borderId="1176" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1577" fillId="0" borderId="1177" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1578" fillId="0" borderId="1178" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1579" fillId="0" borderId="1179" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1580" fillId="0" borderId="1180" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1581" fillId="0" borderId="1181" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1582" fillId="0" borderId="1182" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1583" fillId="0" borderId="1183" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1584" fillId="0" borderId="1184" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1585" fillId="0" borderId="1185" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1586" fillId="0" borderId="1186" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1587" fillId="0" borderId="1187" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1588" fillId="0" borderId="1188" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1589" fillId="0" borderId="1189" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1590" fillId="0" borderId="1190" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1591" fillId="0" borderId="1191" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1592" fillId="0" borderId="1192" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1594" fillId="0" borderId="1193" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1596" fillId="0" borderId="1194" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1598" fillId="0" borderId="1195" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1600" fillId="0" borderId="1196" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1602" fillId="0" borderId="1197" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1604" fillId="0" borderId="1198" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1606" fillId="0" borderId="1199" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1608" fillId="0" borderId="1200" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1610" fillId="0" borderId="1201" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1612" fillId="0" borderId="1202" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1614" fillId="0" borderId="1203" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1616" fillId="0" borderId="1204" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1618" fillId="0" borderId="1205" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1620" fillId="0" borderId="1206" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1622" fillId="0" borderId="1207" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1624" fillId="0" borderId="1208" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1626" fillId="0" borderId="1209" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1628" fillId="0" borderId="1210" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1630" fillId="0" borderId="1211" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1632" fillId="0" borderId="1212" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1634" fillId="0" borderId="1213" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1636" fillId="0" borderId="1214" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1638" fillId="0" borderId="1215" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1640" fillId="0" borderId="1216" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1642" fillId="0" borderId="1217" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1644" fillId="0" borderId="1218" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1646" fillId="0" borderId="1219" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1648" fillId="0" borderId="1220" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1650" fillId="0" borderId="1221" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1652" fillId="0" borderId="1222" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1654" fillId="0" borderId="1223" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1656" fillId="0" borderId="1224" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1658" fillId="0" borderId="1225" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1660" fillId="0" borderId="1226" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1662" fillId="0" borderId="1227" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1664" fillId="0" borderId="1228" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1666" fillId="0" borderId="1229" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1668" fillId="0" borderId="1230" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1670" fillId="0" borderId="1231" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1672" fillId="0" borderId="1232" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1674" fillId="0" borderId="1233" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1676" fillId="0" borderId="1234" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1678" fillId="0" borderId="1235" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1680" fillId="0" borderId="1236" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1682" fillId="0" borderId="1237" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1684" fillId="0" borderId="1238" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1686" fillId="0" borderId="1239" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1688" fillId="0" borderId="1240" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1689" fillId="506" borderId="1241" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1690" fillId="507" borderId="1242" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1691" fillId="508" borderId="1243" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1692" fillId="509" borderId="1244" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1693" fillId="510" borderId="1245" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1694" fillId="511" borderId="1246" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1695" fillId="512" borderId="1247" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1696" fillId="513" borderId="1248" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1697" fillId="514" borderId="1249" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1698" fillId="515" borderId="1250" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1699" fillId="516" borderId="1251" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1700" fillId="517" borderId="1252" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1701" fillId="518" borderId="1253" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1702" fillId="519" borderId="1254" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1703" fillId="520" borderId="1255" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1704" fillId="521" borderId="1256" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1705" fillId="522" borderId="1257" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1706" fillId="523" borderId="1258" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1707" fillId="524" borderId="1259" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1708" fillId="525" borderId="1260" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1709" fillId="526" borderId="1261" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1710" fillId="527" borderId="1262" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1711" fillId="528" borderId="1263" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1712" fillId="529" borderId="1264" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1713" fillId="530" borderId="1265" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1714" fillId="531" borderId="1266" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1715" fillId="532" borderId="1267" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1716" fillId="533" borderId="1268" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1717" fillId="534" borderId="1269" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1718" fillId="535" borderId="1270" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1719" fillId="536" borderId="1271" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1720" fillId="537" borderId="1272" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1721" fillId="538" borderId="1273" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1722" fillId="539" borderId="1274" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1723" fillId="540" borderId="1275" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1724" fillId="541" borderId="1276" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1725" fillId="542" borderId="1277" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1726" fillId="543" borderId="1278" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1727" fillId="544" borderId="1279" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1728" fillId="545" borderId="1280" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1729" fillId="546" borderId="1281" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1730" fillId="547" borderId="1282" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1731" fillId="548" borderId="1283" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1732" fillId="549" borderId="1284" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1733" fillId="550" borderId="1285" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1734" fillId="551" borderId="1286" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1735" fillId="552" borderId="1287" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1736" fillId="553" borderId="1288" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1737" fillId="554" borderId="1289" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1738" fillId="555" borderId="1290" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1739" fillId="556" borderId="1291" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1740" fillId="557" borderId="1292" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1741" fillId="558" borderId="1293" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1742" fillId="559" borderId="1294" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1743" fillId="560" borderId="1295" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1744" fillId="561" borderId="1296" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1745" fillId="562" borderId="1297" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1746" fillId="563" borderId="1298" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1747" fillId="564" borderId="1299" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1748" fillId="565" borderId="1300" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1749" fillId="566" borderId="1301" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1750" fillId="567" borderId="1302" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1751" fillId="568" borderId="1303" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1753" fillId="0" borderId="1304" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1755" fillId="0" borderId="1305" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1757" fillId="0" borderId="1306" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1759" fillId="0" borderId="1307" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -22210,183 +24976,183 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1160" t="s">
+      <c r="A1" s="1307" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1156" t="s">
+      <c r="A2" s="1301" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="1157" t="s">
+      <c r="B2" s="1302" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1158" t="s">
+      <c r="C2" s="1303" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1099" t="s">
+      <c r="A3" s="1244" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1100" t="s">
+      <c r="B3" s="1245" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="1101" t="s">
+      <c r="C3" s="1246" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1102" t="s">
+      <c r="A4" s="1247" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1103" t="s">
+      <c r="B4" s="1248" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="1104" t="s">
+      <c r="C4" s="1249" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1105" t="s">
+      <c r="A5" s="1250" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1106" t="s">
+      <c r="B5" s="1251" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="1107" t="s">
+      <c r="C5" s="1252" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1108" t="s">
+      <c r="A6" s="1253" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1109" t="s">
+      <c r="B6" s="1254" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="1110" t="s">
+      <c r="C6" s="1255" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1111" t="s">
+      <c r="A7" s="1256" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1112" t="s">
+      <c r="B7" s="1257" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="1113" t="s">
+      <c r="C7" s="1258" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1114" t="s">
+      <c r="A8" s="1259" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1115" t="s">
+      <c r="B8" s="1260" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="1116" t="s">
+      <c r="C8" s="1261" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1117" t="s">
+      <c r="A9" s="1262" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1118" t="s">
+      <c r="B9" s="1263" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="1119" t="s">
+      <c r="C9" s="1264" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1120" t="s">
+      <c r="A10" s="1265" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1121" t="s">
+      <c r="B10" s="1266" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="1122" t="s">
+      <c r="C10" s="1267" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1123" t="s">
+      <c r="A11" s="1268" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1124" t="s">
+      <c r="B11" s="1269" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="1125" t="s">
+      <c r="C11" s="1270" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1126" t="s">
+      <c r="A12" s="1271" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1127" t="s">
+      <c r="B12" s="1272" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="1128" t="s">
+      <c r="C12" s="1273" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1129" t="s">
+      <c r="A13" s="1274" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1130" t="s">
+      <c r="B13" s="1275" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="1131" t="s">
+      <c r="C13" s="1276" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1132" t="s">
+      <c r="A14" s="1277" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1133" t="s">
+      <c r="B14" s="1278" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="1134" t="s">
+      <c r="C14" s="1279" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1135" t="s">
+      <c r="A15" s="1280" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1136" t="s">
+      <c r="B15" s="1281" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="1137" t="s">
+      <c r="C15" s="1282" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1150" t="s">
+      <c r="A16" s="1295" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1151" t="s">
+      <c r="B16" s="1296" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="1152" t="s">
+      <c r="C16" s="1297" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1153" t="s">
+      <c r="A17" s="1298" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1154" t="s">
+      <c r="B17" s="1299" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="1155" t="s">
+      <c r="C17" s="1300" t="s">
         <v>126</v>
       </c>
     </row>

--- a/data/cuadros/Comercio, Hoteles y Restaurantes/bh.xlsx
+++ b/data/cuadros/Comercio, Hoteles y Restaurantes/bh.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="139">
   <si>
     <t>Participación del empleo del sector en la región</t>
   </si>
@@ -399,12 +399,45 @@
   <si>
     <t/>
   </si>
+  <si>
+    <t>6,7</t>
+  </si>
+  <si>
+    <t>7,1</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>2,8</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>3,8</t>
+  </si>
+  <si>
+    <t>7,6</t>
+  </si>
+  <si>
+    <t>4,2</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>5,3</t>
+  </si>
+  <si>
+    <t>5,9</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1760">
+  <fonts count="2150">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -7458,8 +7491,1570 @@
       <b/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <b/>
+    </font>
   </fonts>
-  <fills count="569">
+  <fills count="695">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10301,8 +11896,638 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1308">
+  <borders count="1598">
     <border>
       <left/>
       <right/>
@@ -19729,11 +21954,2101 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1308">
+  <cellXfs count="1598">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -24960,6 +29275,1166 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="1759" fillId="0" borderId="1307" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1760" fillId="0" borderId="1308" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1761" fillId="0" borderId="1309" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1762" fillId="0" borderId="1310" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1763" fillId="0" borderId="1311" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1764" fillId="0" borderId="1312" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1765" fillId="0" borderId="1313" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1766" fillId="0" borderId="1314" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1767" fillId="0" borderId="1315" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1768" fillId="0" borderId="1316" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1769" fillId="0" borderId="1317" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1770" fillId="0" borderId="1318" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1771" fillId="0" borderId="1319" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1772" fillId="0" borderId="1320" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1773" fillId="0" borderId="1321" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1774" fillId="0" borderId="1322" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1775" fillId="0" borderId="1323" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1776" fillId="0" borderId="1324" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1777" fillId="0" borderId="1325" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1778" fillId="0" borderId="1326" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1779" fillId="0" borderId="1327" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1780" fillId="0" borderId="1328" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1781" fillId="0" borderId="1329" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1782" fillId="0" borderId="1330" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1783" fillId="0" borderId="1331" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1784" fillId="0" borderId="1332" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1785" fillId="0" borderId="1333" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1786" fillId="0" borderId="1334" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1787" fillId="0" borderId="1335" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1788" fillId="0" borderId="1336" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1789" fillId="0" borderId="1337" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1790" fillId="0" borderId="1338" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1791" fillId="0" borderId="1339" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1793" fillId="0" borderId="1340" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1795" fillId="0" borderId="1341" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1797" fillId="0" borderId="1342" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1799" fillId="0" borderId="1343" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1801" fillId="0" borderId="1344" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1803" fillId="0" borderId="1345" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1805" fillId="0" borderId="1346" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1807" fillId="0" borderId="1347" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1809" fillId="0" borderId="1348" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1811" fillId="0" borderId="1349" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1813" fillId="0" borderId="1350" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1815" fillId="0" borderId="1351" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1817" fillId="0" borderId="1352" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1819" fillId="0" borderId="1353" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1821" fillId="0" borderId="1354" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1823" fillId="0" borderId="1355" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1825" fillId="0" borderId="1356" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1827" fillId="0" borderId="1357" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1829" fillId="0" borderId="1358" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1831" fillId="0" borderId="1359" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1833" fillId="0" borderId="1360" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1835" fillId="0" borderId="1361" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1837" fillId="0" borderId="1362" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1839" fillId="0" borderId="1363" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1841" fillId="0" borderId="1364" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1843" fillId="0" borderId="1365" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1845" fillId="0" borderId="1366" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1847" fillId="0" borderId="1367" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1849" fillId="0" borderId="1368" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1851" fillId="0" borderId="1369" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1853" fillId="0" borderId="1370" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1855" fillId="0" borderId="1371" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1857" fillId="0" borderId="1372" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1859" fillId="0" borderId="1373" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1861" fillId="0" borderId="1374" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1863" fillId="0" borderId="1375" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1865" fillId="0" borderId="1376" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1867" fillId="0" borderId="1377" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1869" fillId="0" borderId="1378" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1871" fillId="0" borderId="1379" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1873" fillId="0" borderId="1380" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1875" fillId="0" borderId="1381" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1877" fillId="0" borderId="1382" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1879" fillId="0" borderId="1383" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1881" fillId="0" borderId="1384" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1883" fillId="0" borderId="1385" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1885" fillId="0" borderId="1386" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1887" fillId="0" borderId="1387" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1888" fillId="569" borderId="1388" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1889" fillId="570" borderId="1389" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1890" fillId="571" borderId="1390" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1891" fillId="572" borderId="1391" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1892" fillId="573" borderId="1392" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1893" fillId="574" borderId="1393" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1894" fillId="575" borderId="1394" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1895" fillId="576" borderId="1395" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1896" fillId="577" borderId="1396" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1897" fillId="578" borderId="1397" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1898" fillId="579" borderId="1398" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1899" fillId="580" borderId="1399" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1900" fillId="581" borderId="1400" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1901" fillId="582" borderId="1401" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1902" fillId="583" borderId="1402" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1903" fillId="584" borderId="1403" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1904" fillId="585" borderId="1404" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1905" fillId="586" borderId="1405" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1906" fillId="587" borderId="1406" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1907" fillId="588" borderId="1407" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1908" fillId="589" borderId="1408" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1909" fillId="590" borderId="1409" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1910" fillId="591" borderId="1410" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1911" fillId="592" borderId="1411" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1912" fillId="593" borderId="1412" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1913" fillId="594" borderId="1413" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1914" fillId="595" borderId="1414" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1915" fillId="596" borderId="1415" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1916" fillId="597" borderId="1416" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1917" fillId="598" borderId="1417" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1918" fillId="599" borderId="1418" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1919" fillId="600" borderId="1419" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1920" fillId="601" borderId="1420" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1921" fillId="602" borderId="1421" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1922" fillId="603" borderId="1422" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1923" fillId="604" borderId="1423" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1924" fillId="605" borderId="1424" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1925" fillId="606" borderId="1425" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1926" fillId="607" borderId="1426" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1927" fillId="608" borderId="1427" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1928" fillId="609" borderId="1428" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1929" fillId="610" borderId="1429" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1930" fillId="611" borderId="1430" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1931" fillId="612" borderId="1431" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1932" fillId="613" borderId="1432" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1933" fillId="614" borderId="1433" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1934" fillId="615" borderId="1434" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1935" fillId="616" borderId="1435" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1936" fillId="617" borderId="1436" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1937" fillId="618" borderId="1437" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1938" fillId="619" borderId="1438" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1939" fillId="620" borderId="1439" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1940" fillId="621" borderId="1440" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1941" fillId="622" borderId="1441" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1942" fillId="623" borderId="1442" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1943" fillId="624" borderId="1443" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1944" fillId="625" borderId="1444" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1945" fillId="626" borderId="1445" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1946" fillId="627" borderId="1446" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1947" fillId="628" borderId="1447" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1948" fillId="629" borderId="1448" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1949" fillId="630" borderId="1449" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1950" fillId="631" borderId="1450" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1952" fillId="0" borderId="1451" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1954" fillId="0" borderId="1452" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1955" fillId="0" borderId="1453" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1956" fillId="0" borderId="1454" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1957" fillId="0" borderId="1455" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1958" fillId="0" borderId="1456" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1959" fillId="0" borderId="1457" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1960" fillId="0" borderId="1458" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1961" fillId="0" borderId="1459" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1962" fillId="0" borderId="1460" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1963" fillId="0" borderId="1461" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1964" fillId="0" borderId="1462" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1965" fillId="0" borderId="1463" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1966" fillId="0" borderId="1464" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1967" fillId="0" borderId="1465" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1968" fillId="0" borderId="1466" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1969" fillId="0" borderId="1467" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1970" fillId="0" borderId="1468" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1971" fillId="0" borderId="1469" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1972" fillId="0" borderId="1470" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1973" fillId="0" borderId="1471" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1974" fillId="0" borderId="1472" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1975" fillId="0" borderId="1473" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1976" fillId="0" borderId="1474" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1977" fillId="0" borderId="1475" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1978" fillId="0" borderId="1476" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1979" fillId="0" borderId="1477" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1980" fillId="0" borderId="1478" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1981" fillId="0" borderId="1479" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1982" fillId="0" borderId="1480" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1983" fillId="0" borderId="1481" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1984" fillId="0" borderId="1482" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1985" fillId="0" borderId="1483" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1986" fillId="0" borderId="1484" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1988" fillId="0" borderId="1485" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1990" fillId="0" borderId="1486" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1992" fillId="0" borderId="1487" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1994" fillId="0" borderId="1488" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1996" fillId="0" borderId="1489" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1998" fillId="0" borderId="1490" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2000" fillId="0" borderId="1491" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2002" fillId="0" borderId="1492" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2004" fillId="0" borderId="1493" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2006" fillId="0" borderId="1494" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2008" fillId="0" borderId="1495" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2010" fillId="0" borderId="1496" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2012" fillId="0" borderId="1497" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2014" fillId="0" borderId="1498" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2016" fillId="0" borderId="1499" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2018" fillId="0" borderId="1500" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2020" fillId="0" borderId="1501" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2022" fillId="0" borderId="1502" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2024" fillId="0" borderId="1503" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2026" fillId="0" borderId="1504" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2028" fillId="0" borderId="1505" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2030" fillId="0" borderId="1506" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2032" fillId="0" borderId="1507" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2034" fillId="0" borderId="1508" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2036" fillId="0" borderId="1509" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2038" fillId="0" borderId="1510" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2040" fillId="0" borderId="1511" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2042" fillId="0" borderId="1512" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2044" fillId="0" borderId="1513" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2046" fillId="0" borderId="1514" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2048" fillId="0" borderId="1515" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2050" fillId="0" borderId="1516" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2052" fillId="0" borderId="1517" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2054" fillId="0" borderId="1518" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2056" fillId="0" borderId="1519" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2058" fillId="0" borderId="1520" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2060" fillId="0" borderId="1521" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2062" fillId="0" borderId="1522" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2064" fillId="0" borderId="1523" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2066" fillId="0" borderId="1524" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2068" fillId="0" borderId="1525" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2070" fillId="0" borderId="1526" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2072" fillId="0" borderId="1527" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2074" fillId="0" borderId="1528" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2076" fillId="0" borderId="1529" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2078" fillId="0" borderId="1530" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2080" fillId="0" borderId="1531" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2082" fillId="0" borderId="1532" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2083" fillId="632" borderId="1533" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2084" fillId="633" borderId="1534" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2085" fillId="634" borderId="1535" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2086" fillId="635" borderId="1536" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2087" fillId="636" borderId="1537" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2088" fillId="637" borderId="1538" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2089" fillId="638" borderId="1539" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2090" fillId="639" borderId="1540" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2091" fillId="640" borderId="1541" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2092" fillId="641" borderId="1542" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2093" fillId="642" borderId="1543" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2094" fillId="643" borderId="1544" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2095" fillId="644" borderId="1545" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2096" fillId="645" borderId="1546" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2097" fillId="646" borderId="1547" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2098" fillId="647" borderId="1548" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2099" fillId="648" borderId="1549" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2100" fillId="649" borderId="1550" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2101" fillId="650" borderId="1551" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2102" fillId="651" borderId="1552" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2103" fillId="652" borderId="1553" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2104" fillId="653" borderId="1554" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2105" fillId="654" borderId="1555" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2106" fillId="655" borderId="1556" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2107" fillId="656" borderId="1557" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2108" fillId="657" borderId="1558" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2109" fillId="658" borderId="1559" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2110" fillId="659" borderId="1560" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2111" fillId="660" borderId="1561" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2112" fillId="661" borderId="1562" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2113" fillId="662" borderId="1563" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2114" fillId="663" borderId="1564" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2115" fillId="664" borderId="1565" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2116" fillId="665" borderId="1566" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2117" fillId="666" borderId="1567" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2118" fillId="667" borderId="1568" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2119" fillId="668" borderId="1569" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2120" fillId="669" borderId="1570" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2121" fillId="670" borderId="1571" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2122" fillId="671" borderId="1572" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2123" fillId="672" borderId="1573" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2124" fillId="673" borderId="1574" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2125" fillId="674" borderId="1575" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2126" fillId="675" borderId="1576" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2127" fillId="676" borderId="1577" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2128" fillId="677" borderId="1578" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2129" fillId="678" borderId="1579" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2130" fillId="679" borderId="1580" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2131" fillId="680" borderId="1581" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2132" fillId="681" borderId="1582" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2133" fillId="682" borderId="1583" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2134" fillId="683" borderId="1584" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2135" fillId="684" borderId="1585" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2136" fillId="685" borderId="1586" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2137" fillId="686" borderId="1587" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2138" fillId="687" borderId="1588" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2139" fillId="688" borderId="1589" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2140" fillId="689" borderId="1590" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2141" fillId="690" borderId="1591" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2142" fillId="691" borderId="1592" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2143" fillId="692" borderId="1593" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2144" fillId="693" borderId="1594" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2145" fillId="694" borderId="1595" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2147" fillId="0" borderId="1596" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2149" fillId="0" borderId="1597" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -24976,183 +30451,183 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1307" t="s">
+      <c r="A1" s="1597" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1301" t="s">
+      <c r="A2" s="1593" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="1302" t="s">
+      <c r="B2" s="1594" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1303" t="s">
+      <c r="C2" s="1595" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1244" t="s">
+      <c r="A3" s="1536" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1245" t="s">
-        <v>97</v>
+      <c r="B3" s="1537" t="s">
+        <v>128</v>
       </c>
-      <c r="C3" s="1246" t="s">
+      <c r="C3" s="1538" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1247" t="s">
+      <c r="A4" s="1539" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1248" t="s">
-        <v>98</v>
+      <c r="B4" s="1540" t="s">
+        <v>129</v>
       </c>
-      <c r="C4" s="1249" t="s">
+      <c r="C4" s="1541" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1250" t="s">
+      <c r="A5" s="1542" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1251" t="s">
-        <v>99</v>
+      <c r="B5" s="1543" t="s">
+        <v>130</v>
       </c>
-      <c r="C5" s="1252" t="s">
+      <c r="C5" s="1544" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1253" t="s">
+      <c r="A6" s="1545" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1254" t="s">
-        <v>100</v>
+      <c r="B6" s="1546" t="s">
+        <v>131</v>
       </c>
-      <c r="C6" s="1255" t="s">
+      <c r="C6" s="1547" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1256" t="s">
+      <c r="A7" s="1548" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1257" t="s">
-        <v>101</v>
+      <c r="B7" s="1549" t="s">
+        <v>132</v>
       </c>
-      <c r="C7" s="1258" t="s">
+      <c r="C7" s="1550" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1259" t="s">
+      <c r="A8" s="1551" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1260" t="s">
-        <v>102</v>
+      <c r="B8" s="1552" t="s">
+        <v>133</v>
       </c>
-      <c r="C8" s="1261" t="s">
+      <c r="C8" s="1553" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1262" t="s">
+      <c r="A9" s="1554" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1263" t="s">
-        <v>103</v>
+      <c r="B9" s="1555" t="s">
+        <v>134</v>
       </c>
-      <c r="C9" s="1264" t="s">
+      <c r="C9" s="1556" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1265" t="s">
+      <c r="A10" s="1557" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1266" t="s">
-        <v>104</v>
+      <c r="B10" s="1558" t="s">
+        <v>73</v>
       </c>
-      <c r="C10" s="1267" t="s">
+      <c r="C10" s="1559" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1268" t="s">
+      <c r="A11" s="1560" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1269" t="s">
-        <v>105</v>
+      <c r="B11" s="1561" t="s">
+        <v>35</v>
       </c>
-      <c r="C11" s="1270" t="s">
+      <c r="C11" s="1562" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1271" t="s">
+      <c r="A12" s="1563" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1272" t="s">
-        <v>106</v>
+      <c r="B12" s="1564" t="s">
+        <v>135</v>
       </c>
-      <c r="C12" s="1273" t="s">
+      <c r="C12" s="1565" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1274" t="s">
+      <c r="A13" s="1566" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1275" t="s">
-        <v>107</v>
+      <c r="B13" s="1567" t="s">
+        <v>136</v>
       </c>
-      <c r="C13" s="1276" t="s">
+      <c r="C13" s="1568" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1277" t="s">
+      <c r="A14" s="1569" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1278" t="s">
-        <v>108</v>
+      <c r="B14" s="1570" t="s">
+        <v>137</v>
       </c>
-      <c r="C14" s="1279" t="s">
+      <c r="C14" s="1571" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1280" t="s">
+      <c r="A15" s="1572" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1281" t="s">
-        <v>109</v>
+      <c r="B15" s="1573" t="s">
+        <v>132</v>
       </c>
-      <c r="C15" s="1282" t="s">
+      <c r="C15" s="1574" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1295" t="s">
+      <c r="A16" s="1587" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1296" t="s">
-        <v>110</v>
+      <c r="B16" s="1588" t="s">
+        <v>131</v>
       </c>
-      <c r="C16" s="1297" t="s">
+      <c r="C16" s="1589" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1298" t="s">
+      <c r="A17" s="1590" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1299" t="s">
-        <v>111</v>
+      <c r="B17" s="1591" t="s">
+        <v>138</v>
       </c>
-      <c r="C17" s="1300" t="s">
+      <c r="C17" s="1592" t="s">
         <v>126</v>
       </c>
     </row>

--- a/data/cuadros/Comercio, Hoteles y Restaurantes/bh.xlsx
+++ b/data/cuadros/Comercio, Hoteles y Restaurantes/bh.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="140">
   <si>
     <t>Participación del empleo del sector en la región</t>
   </si>
@@ -432,12 +432,15 @@
   <si>
     <t>5,9</t>
   </si>
+  <si>
+    <t>1.5. Distribución regional del PIB y de los ocupados del sector Comercio, Hoteles y Restaurantes, 2014.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2150">
+  <fonts count="2540">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -9053,8 +9056,1570 @@
       <name val="Times New Roman"/>
       <b/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <b/>
+    </font>
   </fonts>
-  <fills count="695">
+  <fills count="821">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12526,8 +14091,638 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1598">
+  <borders count="1888">
     <border>
       <left/>
       <right/>
@@ -24044,11 +26239,2101 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1598">
+  <cellXfs count="1888">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -30435,6 +34720,1166 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="2149" fillId="0" borderId="1597" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2150" fillId="0" borderId="1598" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2151" fillId="0" borderId="1599" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2152" fillId="0" borderId="1600" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2153" fillId="0" borderId="1601" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2154" fillId="0" borderId="1602" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2155" fillId="0" borderId="1603" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2156" fillId="0" borderId="1604" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2157" fillId="0" borderId="1605" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2158" fillId="0" borderId="1606" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2159" fillId="0" borderId="1607" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2160" fillId="0" borderId="1608" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2161" fillId="0" borderId="1609" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2162" fillId="0" borderId="1610" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2163" fillId="0" borderId="1611" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2164" fillId="0" borderId="1612" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2165" fillId="0" borderId="1613" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2166" fillId="0" borderId="1614" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2167" fillId="0" borderId="1615" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2168" fillId="0" borderId="1616" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2169" fillId="0" borderId="1617" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2170" fillId="0" borderId="1618" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2171" fillId="0" borderId="1619" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2172" fillId="0" borderId="1620" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2173" fillId="0" borderId="1621" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2174" fillId="0" borderId="1622" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2175" fillId="0" borderId="1623" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2176" fillId="0" borderId="1624" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2177" fillId="0" borderId="1625" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2178" fillId="0" borderId="1626" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2179" fillId="0" borderId="1627" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2180" fillId="0" borderId="1628" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2181" fillId="0" borderId="1629" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2183" fillId="0" borderId="1630" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2185" fillId="0" borderId="1631" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2187" fillId="0" borderId="1632" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2189" fillId="0" borderId="1633" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2191" fillId="0" borderId="1634" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2193" fillId="0" borderId="1635" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2195" fillId="0" borderId="1636" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2197" fillId="0" borderId="1637" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2199" fillId="0" borderId="1638" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2201" fillId="0" borderId="1639" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2203" fillId="0" borderId="1640" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2205" fillId="0" borderId="1641" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2207" fillId="0" borderId="1642" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2209" fillId="0" borderId="1643" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2211" fillId="0" borderId="1644" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2213" fillId="0" borderId="1645" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2215" fillId="0" borderId="1646" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2217" fillId="0" borderId="1647" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2219" fillId="0" borderId="1648" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2221" fillId="0" borderId="1649" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2223" fillId="0" borderId="1650" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2225" fillId="0" borderId="1651" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2227" fillId="0" borderId="1652" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2229" fillId="0" borderId="1653" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2231" fillId="0" borderId="1654" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2233" fillId="0" borderId="1655" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2235" fillId="0" borderId="1656" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2237" fillId="0" borderId="1657" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2239" fillId="0" borderId="1658" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2241" fillId="0" borderId="1659" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2243" fillId="0" borderId="1660" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2245" fillId="0" borderId="1661" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2247" fillId="0" borderId="1662" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2249" fillId="0" borderId="1663" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2251" fillId="0" borderId="1664" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2253" fillId="0" borderId="1665" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2255" fillId="0" borderId="1666" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2257" fillId="0" borderId="1667" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2259" fillId="0" borderId="1668" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2261" fillId="0" borderId="1669" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2263" fillId="0" borderId="1670" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2265" fillId="0" borderId="1671" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2267" fillId="0" borderId="1672" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2269" fillId="0" borderId="1673" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2271" fillId="0" borderId="1674" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2273" fillId="0" borderId="1675" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2275" fillId="0" borderId="1676" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2277" fillId="0" borderId="1677" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2278" fillId="695" borderId="1678" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2279" fillId="696" borderId="1679" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2280" fillId="697" borderId="1680" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2281" fillId="698" borderId="1681" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2282" fillId="699" borderId="1682" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2283" fillId="700" borderId="1683" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2284" fillId="701" borderId="1684" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2285" fillId="702" borderId="1685" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2286" fillId="703" borderId="1686" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2287" fillId="704" borderId="1687" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2288" fillId="705" borderId="1688" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2289" fillId="706" borderId="1689" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2290" fillId="707" borderId="1690" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2291" fillId="708" borderId="1691" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2292" fillId="709" borderId="1692" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2293" fillId="710" borderId="1693" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2294" fillId="711" borderId="1694" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2295" fillId="712" borderId="1695" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2296" fillId="713" borderId="1696" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2297" fillId="714" borderId="1697" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2298" fillId="715" borderId="1698" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2299" fillId="716" borderId="1699" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2300" fillId="717" borderId="1700" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2301" fillId="718" borderId="1701" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2302" fillId="719" borderId="1702" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2303" fillId="720" borderId="1703" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2304" fillId="721" borderId="1704" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2305" fillId="722" borderId="1705" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2306" fillId="723" borderId="1706" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2307" fillId="724" borderId="1707" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2308" fillId="725" borderId="1708" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2309" fillId="726" borderId="1709" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2310" fillId="727" borderId="1710" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2311" fillId="728" borderId="1711" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2312" fillId="729" borderId="1712" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2313" fillId="730" borderId="1713" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2314" fillId="731" borderId="1714" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2315" fillId="732" borderId="1715" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2316" fillId="733" borderId="1716" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2317" fillId="734" borderId="1717" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2318" fillId="735" borderId="1718" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2319" fillId="736" borderId="1719" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2320" fillId="737" borderId="1720" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2321" fillId="738" borderId="1721" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2322" fillId="739" borderId="1722" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2323" fillId="740" borderId="1723" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2324" fillId="741" borderId="1724" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2325" fillId="742" borderId="1725" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2326" fillId="743" borderId="1726" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2327" fillId="744" borderId="1727" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2328" fillId="745" borderId="1728" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2329" fillId="746" borderId="1729" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2330" fillId="747" borderId="1730" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2331" fillId="748" borderId="1731" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2332" fillId="749" borderId="1732" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2333" fillId="750" borderId="1733" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2334" fillId="751" borderId="1734" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2335" fillId="752" borderId="1735" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2336" fillId="753" borderId="1736" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2337" fillId="754" borderId="1737" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2338" fillId="755" borderId="1738" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2339" fillId="756" borderId="1739" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2340" fillId="757" borderId="1740" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2342" fillId="0" borderId="1741" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2344" fillId="0" borderId="1742" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2345" fillId="0" borderId="1743" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2346" fillId="0" borderId="1744" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2347" fillId="0" borderId="1745" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2348" fillId="0" borderId="1746" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2349" fillId="0" borderId="1747" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2350" fillId="0" borderId="1748" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2351" fillId="0" borderId="1749" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2352" fillId="0" borderId="1750" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2353" fillId="0" borderId="1751" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2354" fillId="0" borderId="1752" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2355" fillId="0" borderId="1753" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2356" fillId="0" borderId="1754" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2357" fillId="0" borderId="1755" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2358" fillId="0" borderId="1756" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2359" fillId="0" borderId="1757" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2360" fillId="0" borderId="1758" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2361" fillId="0" borderId="1759" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2362" fillId="0" borderId="1760" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2363" fillId="0" borderId="1761" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2364" fillId="0" borderId="1762" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2365" fillId="0" borderId="1763" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2366" fillId="0" borderId="1764" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2367" fillId="0" borderId="1765" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2368" fillId="0" borderId="1766" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2369" fillId="0" borderId="1767" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2370" fillId="0" borderId="1768" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2371" fillId="0" borderId="1769" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2372" fillId="0" borderId="1770" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2373" fillId="0" borderId="1771" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2374" fillId="0" borderId="1772" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2375" fillId="0" borderId="1773" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2376" fillId="0" borderId="1774" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2378" fillId="0" borderId="1775" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2380" fillId="0" borderId="1776" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2382" fillId="0" borderId="1777" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2384" fillId="0" borderId="1778" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2386" fillId="0" borderId="1779" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2388" fillId="0" borderId="1780" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2390" fillId="0" borderId="1781" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2392" fillId="0" borderId="1782" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2394" fillId="0" borderId="1783" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2396" fillId="0" borderId="1784" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2398" fillId="0" borderId="1785" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2400" fillId="0" borderId="1786" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2402" fillId="0" borderId="1787" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2404" fillId="0" borderId="1788" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2406" fillId="0" borderId="1789" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2408" fillId="0" borderId="1790" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2410" fillId="0" borderId="1791" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2412" fillId="0" borderId="1792" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2414" fillId="0" borderId="1793" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2416" fillId="0" borderId="1794" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2418" fillId="0" borderId="1795" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2420" fillId="0" borderId="1796" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2422" fillId="0" borderId="1797" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2424" fillId="0" borderId="1798" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2426" fillId="0" borderId="1799" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2428" fillId="0" borderId="1800" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2430" fillId="0" borderId="1801" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2432" fillId="0" borderId="1802" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2434" fillId="0" borderId="1803" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2436" fillId="0" borderId="1804" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2438" fillId="0" borderId="1805" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2440" fillId="0" borderId="1806" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2442" fillId="0" borderId="1807" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2444" fillId="0" borderId="1808" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2446" fillId="0" borderId="1809" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2448" fillId="0" borderId="1810" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2450" fillId="0" borderId="1811" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2452" fillId="0" borderId="1812" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2454" fillId="0" borderId="1813" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2456" fillId="0" borderId="1814" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2458" fillId="0" borderId="1815" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2460" fillId="0" borderId="1816" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2462" fillId="0" borderId="1817" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2464" fillId="0" borderId="1818" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2466" fillId="0" borderId="1819" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2468" fillId="0" borderId="1820" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2470" fillId="0" borderId="1821" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2472" fillId="0" borderId="1822" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2473" fillId="758" borderId="1823" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2474" fillId="759" borderId="1824" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2475" fillId="760" borderId="1825" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2476" fillId="761" borderId="1826" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2477" fillId="762" borderId="1827" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2478" fillId="763" borderId="1828" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2479" fillId="764" borderId="1829" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2480" fillId="765" borderId="1830" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2481" fillId="766" borderId="1831" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2482" fillId="767" borderId="1832" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2483" fillId="768" borderId="1833" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2484" fillId="769" borderId="1834" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2485" fillId="770" borderId="1835" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2486" fillId="771" borderId="1836" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2487" fillId="772" borderId="1837" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2488" fillId="773" borderId="1838" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2489" fillId="774" borderId="1839" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2490" fillId="775" borderId="1840" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2491" fillId="776" borderId="1841" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2492" fillId="777" borderId="1842" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2493" fillId="778" borderId="1843" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2494" fillId="779" borderId="1844" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2495" fillId="780" borderId="1845" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2496" fillId="781" borderId="1846" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2497" fillId="782" borderId="1847" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2498" fillId="783" borderId="1848" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2499" fillId="784" borderId="1849" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2500" fillId="785" borderId="1850" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2501" fillId="786" borderId="1851" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2502" fillId="787" borderId="1852" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2503" fillId="788" borderId="1853" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2504" fillId="789" borderId="1854" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2505" fillId="790" borderId="1855" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2506" fillId="791" borderId="1856" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2507" fillId="792" borderId="1857" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2508" fillId="793" borderId="1858" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2509" fillId="794" borderId="1859" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2510" fillId="795" borderId="1860" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2511" fillId="796" borderId="1861" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2512" fillId="797" borderId="1862" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2513" fillId="798" borderId="1863" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2514" fillId="799" borderId="1864" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2515" fillId="800" borderId="1865" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2516" fillId="801" borderId="1866" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2517" fillId="802" borderId="1867" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2518" fillId="803" borderId="1868" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2519" fillId="804" borderId="1869" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2520" fillId="805" borderId="1870" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2521" fillId="806" borderId="1871" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2522" fillId="807" borderId="1872" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2523" fillId="808" borderId="1873" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2524" fillId="809" borderId="1874" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2525" fillId="810" borderId="1875" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2526" fillId="811" borderId="1876" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2527" fillId="812" borderId="1877" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2528" fillId="813" borderId="1878" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2529" fillId="814" borderId="1879" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2530" fillId="815" borderId="1880" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2531" fillId="816" borderId="1881" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2532" fillId="817" borderId="1882" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2533" fillId="818" borderId="1883" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2534" fillId="819" borderId="1884" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2535" fillId="820" borderId="1885" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2537" fillId="0" borderId="1886" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="2539" fillId="0" borderId="1887" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -30451,183 +35896,183 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1597" t="s">
+      <c r="A1" s="1887" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1593" t="s">
+      <c r="A2" s="1883" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="1594" t="s">
+      <c r="B2" s="1884" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1595" t="s">
+      <c r="C2" s="1885" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1536" t="s">
+      <c r="A3" s="1826" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1537" t="s">
-        <v>128</v>
+      <c r="B3" s="1827" t="s">
+        <v>33</v>
       </c>
-      <c r="C3" s="1538" t="s">
+      <c r="C3" s="1828" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1539" t="s">
+      <c r="A4" s="1829" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1540" t="s">
-        <v>129</v>
+      <c r="B4" s="1830" t="s">
+        <v>34</v>
       </c>
-      <c r="C4" s="1541" t="s">
+      <c r="C4" s="1831" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1542" t="s">
+      <c r="A5" s="1832" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1543" t="s">
-        <v>130</v>
+      <c r="B5" s="1833" t="s">
+        <v>35</v>
       </c>
-      <c r="C5" s="1544" t="s">
+      <c r="C5" s="1834" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1545" t="s">
+      <c r="A6" s="1835" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1546" t="s">
-        <v>131</v>
+      <c r="B6" s="1836" t="s">
+        <v>36</v>
       </c>
-      <c r="C6" s="1547" t="s">
+      <c r="C6" s="1837" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1548" t="s">
+      <c r="A7" s="1838" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1549" t="s">
-        <v>132</v>
+      <c r="B7" s="1839" t="s">
+        <v>37</v>
       </c>
-      <c r="C7" s="1550" t="s">
+      <c r="C7" s="1840" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1551" t="s">
+      <c r="A8" s="1841" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1552" t="s">
-        <v>133</v>
+      <c r="B8" s="1842" t="s">
+        <v>38</v>
       </c>
-      <c r="C8" s="1553" t="s">
+      <c r="C8" s="1843" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1554" t="s">
+      <c r="A9" s="1844" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1555" t="s">
-        <v>134</v>
+      <c r="B9" s="1845" t="s">
+        <v>39</v>
       </c>
-      <c r="C9" s="1556" t="s">
+      <c r="C9" s="1846" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1557" t="s">
+      <c r="A10" s="1847" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1558" t="s">
-        <v>73</v>
+      <c r="B10" s="1848" t="s">
+        <v>40</v>
       </c>
-      <c r="C10" s="1559" t="s">
+      <c r="C10" s="1849" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1560" t="s">
+      <c r="A11" s="1850" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1561" t="s">
-        <v>35</v>
+      <c r="B11" s="1851" t="s">
+        <v>41</v>
       </c>
-      <c r="C11" s="1562" t="s">
+      <c r="C11" s="1852" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1563" t="s">
+      <c r="A12" s="1853" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1564" t="s">
-        <v>135</v>
+      <c r="B12" s="1854" t="s">
+        <v>42</v>
       </c>
-      <c r="C12" s="1565" t="s">
+      <c r="C12" s="1855" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1566" t="s">
+      <c r="A13" s="1856" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1567" t="s">
-        <v>136</v>
+      <c r="B13" s="1857" t="s">
+        <v>43</v>
       </c>
-      <c r="C13" s="1568" t="s">
+      <c r="C13" s="1858" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1569" t="s">
+      <c r="A14" s="1859" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1570" t="s">
-        <v>137</v>
+      <c r="B14" s="1860" t="s">
+        <v>44</v>
       </c>
-      <c r="C14" s="1571" t="s">
+      <c r="C14" s="1861" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1572" t="s">
+      <c r="A15" s="1862" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1573" t="s">
-        <v>132</v>
+      <c r="B15" s="1863" t="s">
+        <v>45</v>
       </c>
-      <c r="C15" s="1574" t="s">
+      <c r="C15" s="1864" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1587" t="s">
+      <c r="A16" s="1877" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1588" t="s">
-        <v>131</v>
+      <c r="B16" s="1878" t="s">
+        <v>46</v>
       </c>
-      <c r="C16" s="1589" t="s">
+      <c r="C16" s="1879" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1590" t="s">
+      <c r="A17" s="1880" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1591" t="s">
-        <v>138</v>
+      <c r="B17" s="1881" t="s">
+        <v>47</v>
       </c>
-      <c r="C17" s="1592" t="s">
+      <c r="C17" s="1882" t="s">
         <v>126</v>
       </c>
     </row>
@@ -30645,183 +36090,183 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1015" t="s">
-        <v>96</v>
+      <c r="A1" s="1742" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1011" t="s">
+      <c r="A2" s="1738" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="1012" t="s">
+      <c r="B2" s="1739" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="1013" t="s">
+      <c r="C2" s="1740" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="954" t="s">
+      <c r="A3" s="1681" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="955" t="s">
+      <c r="B3" s="1682" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="956" t="s">
+      <c r="C3" s="1683" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="957" t="s">
+      <c r="A4" s="1684" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="958" t="s">
+      <c r="B4" s="1685" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="959" t="s">
+      <c r="C4" s="1686" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="960" t="s">
+      <c r="A5" s="1687" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="961" t="s">
+      <c r="B5" s="1688" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="962" t="s">
+      <c r="C5" s="1689" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="963" t="s">
+      <c r="A6" s="1690" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="964" t="s">
+      <c r="B6" s="1691" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="965" t="s">
+      <c r="C6" s="1692" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="966" t="s">
+      <c r="A7" s="1693" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="967" t="s">
+      <c r="B7" s="1694" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="968" t="s">
+      <c r="C7" s="1695" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="969" t="s">
+      <c r="A8" s="1696" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="970" t="s">
+      <c r="B8" s="1697" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="971" t="s">
+      <c r="C8" s="1698" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="972" t="s">
+      <c r="A9" s="1699" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="973" t="s">
+      <c r="B9" s="1700" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="974" t="s">
+      <c r="C9" s="1701" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="975" t="s">
+      <c r="A10" s="1702" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="976" t="s">
+      <c r="B10" s="1703" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="977" t="s">
+      <c r="C10" s="1704" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="978" t="s">
+      <c r="A11" s="1705" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="979" t="s">
+      <c r="B11" s="1706" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="980" t="s">
+      <c r="C11" s="1707" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="981" t="s">
+      <c r="A12" s="1708" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="982" t="s">
+      <c r="B12" s="1709" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="983" t="s">
+      <c r="C12" s="1710" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="984" t="s">
+      <c r="A13" s="1711" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="985" t="s">
+      <c r="B13" s="1712" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="986" t="s">
+      <c r="C13" s="1713" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="987" t="s">
+      <c r="A14" s="1714" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="988" t="s">
+      <c r="B14" s="1715" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="989" t="s">
+      <c r="C14" s="1716" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="990" t="s">
+      <c r="A15" s="1717" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="991" t="s">
+      <c r="B15" s="1718" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="992" t="s">
+      <c r="C15" s="1719" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1005" t="s">
+      <c r="A16" s="1732" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1006" t="s">
+      <c r="B16" s="1733" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="1007" t="s">
+      <c r="C16" s="1734" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1008" t="s">
+      <c r="A17" s="1735" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1009" t="s">
+      <c r="B17" s="1736" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="1010" t="s">
+      <c r="C17" s="1737" t="s">
         <v>95</v>
       </c>
     </row>

--- a/data/cuadros/Comercio, Hoteles y Restaurantes/bh.xlsx
+++ b/data/cuadros/Comercio, Hoteles y Restaurantes/bh.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="87">
   <si>
     <t>Participación del PIB del sector en la región</t>
   </si>
@@ -282,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="879">
+  <fonts count="1269">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -3805,8 +3805,1570 @@
       <name val="Times New Roman"/>
       <b/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <b/>
+    </font>
   </fonts>
-  <fills count="350">
+  <fills count="476">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5553,8 +7115,638 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="679">
+  <borders count="969">
     <border>
       <left/>
       <right/>
@@ -10476,11 +12668,2101 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="679">
+  <cellXfs count="969">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -13029,6 +17311,1166 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="878" fillId="0" borderId="678" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="879" fillId="0" borderId="679" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="880" fillId="0" borderId="680" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="881" fillId="0" borderId="681" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="882" fillId="0" borderId="682" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="883" fillId="0" borderId="683" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="884" fillId="0" borderId="684" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="885" fillId="0" borderId="685" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="886" fillId="0" borderId="686" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="887" fillId="0" borderId="687" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="888" fillId="0" borderId="688" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="889" fillId="0" borderId="689" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="890" fillId="0" borderId="690" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="891" fillId="0" borderId="691" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="892" fillId="0" borderId="692" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="893" fillId="0" borderId="693" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="894" fillId="0" borderId="694" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="895" fillId="0" borderId="695" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="896" fillId="0" borderId="696" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="897" fillId="0" borderId="697" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="898" fillId="0" borderId="698" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="899" fillId="0" borderId="699" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="900" fillId="0" borderId="700" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="901" fillId="0" borderId="701" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="902" fillId="0" borderId="702" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="903" fillId="0" borderId="703" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="904" fillId="0" borderId="704" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="905" fillId="0" borderId="705" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="906" fillId="0" borderId="706" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="907" fillId="0" borderId="707" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="908" fillId="0" borderId="708" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="909" fillId="0" borderId="709" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="910" fillId="0" borderId="710" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="912" fillId="0" borderId="711" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="914" fillId="0" borderId="712" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="916" fillId="0" borderId="713" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="918" fillId="0" borderId="714" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="920" fillId="0" borderId="715" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="922" fillId="0" borderId="716" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="924" fillId="0" borderId="717" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="926" fillId="0" borderId="718" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="928" fillId="0" borderId="719" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="930" fillId="0" borderId="720" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="932" fillId="0" borderId="721" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="934" fillId="0" borderId="722" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="936" fillId="0" borderId="723" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="938" fillId="0" borderId="724" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="940" fillId="0" borderId="725" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="942" fillId="0" borderId="726" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="944" fillId="0" borderId="727" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="946" fillId="0" borderId="728" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="948" fillId="0" borderId="729" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="950" fillId="0" borderId="730" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="952" fillId="0" borderId="731" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="954" fillId="0" borderId="732" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="956" fillId="0" borderId="733" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="958" fillId="0" borderId="734" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="960" fillId="0" borderId="735" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="962" fillId="0" borderId="736" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="964" fillId="0" borderId="737" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="966" fillId="0" borderId="738" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="968" fillId="0" borderId="739" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="970" fillId="0" borderId="740" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="972" fillId="0" borderId="741" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="974" fillId="0" borderId="742" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="976" fillId="0" borderId="743" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="978" fillId="0" borderId="744" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="980" fillId="0" borderId="745" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="982" fillId="0" borderId="746" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="984" fillId="0" borderId="747" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="986" fillId="0" borderId="748" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="988" fillId="0" borderId="749" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="990" fillId="0" borderId="750" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="992" fillId="0" borderId="751" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="994" fillId="0" borderId="752" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="996" fillId="0" borderId="753" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="998" fillId="0" borderId="754" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1000" fillId="0" borderId="755" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1002" fillId="0" borderId="756" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1004" fillId="0" borderId="757" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1006" fillId="0" borderId="758" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1007" fillId="350" borderId="759" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1008" fillId="351" borderId="760" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1009" fillId="352" borderId="761" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1010" fillId="353" borderId="762" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1011" fillId="354" borderId="763" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1012" fillId="355" borderId="764" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1013" fillId="356" borderId="765" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1014" fillId="357" borderId="766" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1015" fillId="358" borderId="767" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1016" fillId="359" borderId="768" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1017" fillId="360" borderId="769" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1018" fillId="361" borderId="770" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1019" fillId="362" borderId="771" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1020" fillId="363" borderId="772" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1021" fillId="364" borderId="773" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1022" fillId="365" borderId="774" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1023" fillId="366" borderId="775" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1024" fillId="367" borderId="776" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1025" fillId="368" borderId="777" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1026" fillId="369" borderId="778" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1027" fillId="370" borderId="779" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1028" fillId="371" borderId="780" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1029" fillId="372" borderId="781" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1030" fillId="373" borderId="782" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1031" fillId="374" borderId="783" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1032" fillId="375" borderId="784" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1033" fillId="376" borderId="785" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1034" fillId="377" borderId="786" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1035" fillId="378" borderId="787" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1036" fillId="379" borderId="788" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1037" fillId="380" borderId="789" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1038" fillId="381" borderId="790" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1039" fillId="382" borderId="791" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1040" fillId="383" borderId="792" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1041" fillId="384" borderId="793" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1042" fillId="385" borderId="794" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1043" fillId="386" borderId="795" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1044" fillId="387" borderId="796" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1045" fillId="388" borderId="797" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1046" fillId="389" borderId="798" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1047" fillId="390" borderId="799" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1048" fillId="391" borderId="800" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1049" fillId="392" borderId="801" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1050" fillId="393" borderId="802" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1051" fillId="394" borderId="803" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1052" fillId="395" borderId="804" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1053" fillId="396" borderId="805" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1054" fillId="397" borderId="806" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1055" fillId="398" borderId="807" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1056" fillId="399" borderId="808" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1057" fillId="400" borderId="809" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1058" fillId="401" borderId="810" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1059" fillId="402" borderId="811" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1060" fillId="403" borderId="812" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1061" fillId="404" borderId="813" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1062" fillId="405" borderId="814" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1063" fillId="406" borderId="815" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1064" fillId="407" borderId="816" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1065" fillId="408" borderId="817" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1066" fillId="409" borderId="818" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1067" fillId="410" borderId="819" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1068" fillId="411" borderId="820" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1069" fillId="412" borderId="821" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1071" fillId="0" borderId="822" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1073" fillId="0" borderId="823" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1074" fillId="0" borderId="824" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1075" fillId="0" borderId="825" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1076" fillId="0" borderId="826" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1077" fillId="0" borderId="827" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1078" fillId="0" borderId="828" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1079" fillId="0" borderId="829" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1080" fillId="0" borderId="830" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1081" fillId="0" borderId="831" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1082" fillId="0" borderId="832" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1083" fillId="0" borderId="833" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1084" fillId="0" borderId="834" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1085" fillId="0" borderId="835" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1086" fillId="0" borderId="836" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1087" fillId="0" borderId="837" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1088" fillId="0" borderId="838" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1089" fillId="0" borderId="839" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1090" fillId="0" borderId="840" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1091" fillId="0" borderId="841" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1092" fillId="0" borderId="842" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1093" fillId="0" borderId="843" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1094" fillId="0" borderId="844" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1095" fillId="0" borderId="845" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1096" fillId="0" borderId="846" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1097" fillId="0" borderId="847" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1098" fillId="0" borderId="848" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1099" fillId="0" borderId="849" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1100" fillId="0" borderId="850" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1101" fillId="0" borderId="851" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1102" fillId="0" borderId="852" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1103" fillId="0" borderId="853" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1104" fillId="0" borderId="854" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1105" fillId="0" borderId="855" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1107" fillId="0" borderId="856" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1109" fillId="0" borderId="857" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1111" fillId="0" borderId="858" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1113" fillId="0" borderId="859" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1115" fillId="0" borderId="860" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1117" fillId="0" borderId="861" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1119" fillId="0" borderId="862" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1121" fillId="0" borderId="863" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1123" fillId="0" borderId="864" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1125" fillId="0" borderId="865" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1127" fillId="0" borderId="866" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1129" fillId="0" borderId="867" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1131" fillId="0" borderId="868" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1133" fillId="0" borderId="869" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1135" fillId="0" borderId="870" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1137" fillId="0" borderId="871" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1139" fillId="0" borderId="872" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1141" fillId="0" borderId="873" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1143" fillId="0" borderId="874" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1145" fillId="0" borderId="875" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1147" fillId="0" borderId="876" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1149" fillId="0" borderId="877" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1151" fillId="0" borderId="878" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1153" fillId="0" borderId="879" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1155" fillId="0" borderId="880" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1157" fillId="0" borderId="881" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1159" fillId="0" borderId="882" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1161" fillId="0" borderId="883" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1163" fillId="0" borderId="884" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1165" fillId="0" borderId="885" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1167" fillId="0" borderId="886" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1169" fillId="0" borderId="887" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1171" fillId="0" borderId="888" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1173" fillId="0" borderId="889" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1175" fillId="0" borderId="890" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1177" fillId="0" borderId="891" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1179" fillId="0" borderId="892" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1181" fillId="0" borderId="893" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1183" fillId="0" borderId="894" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1185" fillId="0" borderId="895" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1187" fillId="0" borderId="896" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1189" fillId="0" borderId="897" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1191" fillId="0" borderId="898" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1193" fillId="0" borderId="899" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1195" fillId="0" borderId="900" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1197" fillId="0" borderId="901" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1199" fillId="0" borderId="902" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1201" fillId="0" borderId="903" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1202" fillId="413" borderId="904" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1203" fillId="414" borderId="905" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1204" fillId="415" borderId="906" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1205" fillId="416" borderId="907" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1206" fillId="417" borderId="908" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1207" fillId="418" borderId="909" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1208" fillId="419" borderId="910" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1209" fillId="420" borderId="911" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1210" fillId="421" borderId="912" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1211" fillId="422" borderId="913" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1212" fillId="423" borderId="914" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1213" fillId="424" borderId="915" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1214" fillId="425" borderId="916" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1215" fillId="426" borderId="917" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1216" fillId="427" borderId="918" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1217" fillId="428" borderId="919" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1218" fillId="429" borderId="920" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1219" fillId="430" borderId="921" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1220" fillId="431" borderId="922" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1221" fillId="432" borderId="923" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1222" fillId="433" borderId="924" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1223" fillId="434" borderId="925" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1224" fillId="435" borderId="926" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1225" fillId="436" borderId="927" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1226" fillId="437" borderId="928" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1227" fillId="438" borderId="929" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1228" fillId="439" borderId="930" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1229" fillId="440" borderId="931" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1230" fillId="441" borderId="932" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1231" fillId="442" borderId="933" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1232" fillId="443" borderId="934" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1233" fillId="444" borderId="935" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1234" fillId="445" borderId="936" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1235" fillId="446" borderId="937" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1236" fillId="447" borderId="938" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1237" fillId="448" borderId="939" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1238" fillId="449" borderId="940" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1239" fillId="450" borderId="941" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1240" fillId="451" borderId="942" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1241" fillId="452" borderId="943" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1242" fillId="453" borderId="944" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1243" fillId="454" borderId="945" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1244" fillId="455" borderId="946" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1245" fillId="456" borderId="947" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1246" fillId="457" borderId="948" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1247" fillId="458" borderId="949" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1248" fillId="459" borderId="950" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1249" fillId="460" borderId="951" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1250" fillId="461" borderId="952" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1251" fillId="462" borderId="953" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1252" fillId="463" borderId="954" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1253" fillId="464" borderId="955" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1254" fillId="465" borderId="956" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1255" fillId="466" borderId="957" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1256" fillId="467" borderId="958" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1257" fillId="468" borderId="959" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1258" fillId="469" borderId="960" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1259" fillId="470" borderId="961" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1260" fillId="471" borderId="962" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1261" fillId="472" borderId="963" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1262" fillId="473" borderId="964" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1263" fillId="474" borderId="965" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1264" fillId="475" borderId="966" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1266" fillId="0" borderId="967" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1268" fillId="0" borderId="968" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -13345,183 +18787,183 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="388" t="s">
+      <c r="A1" s="823" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="384" t="s">
+      <c r="A2" s="819" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="385" t="s">
+      <c r="B2" s="820" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="386" t="s">
+      <c r="C2" s="821" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="327" t="s">
+      <c r="A3" s="762" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="328" t="s">
+      <c r="B3" s="763" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="329" t="s">
+      <c r="C3" s="764" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="330" t="s">
+      <c r="A4" s="765" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="331" t="s">
+      <c r="B4" s="766" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="332" t="s">
+      <c r="C4" s="767" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="333" t="s">
+      <c r="A5" s="768" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="334" t="s">
+      <c r="B5" s="769" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="335" t="s">
+      <c r="C5" s="770" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="336" t="s">
+      <c r="A6" s="771" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="337" t="s">
+      <c r="B6" s="772" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="338" t="s">
+      <c r="C6" s="773" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="339" t="s">
+      <c r="A7" s="774" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="340" t="s">
+      <c r="B7" s="775" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="341" t="s">
+      <c r="C7" s="776" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="342" t="s">
+      <c r="A8" s="777" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="343" t="s">
+      <c r="B8" s="778" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="344" t="s">
+      <c r="C8" s="779" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="345" t="s">
+      <c r="A9" s="780" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="346" t="s">
+      <c r="B9" s="781" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="347" t="s">
+      <c r="C9" s="782" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="348" t="s">
+      <c r="A10" s="783" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="349" t="s">
+      <c r="B10" s="784" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="350" t="s">
+      <c r="C10" s="785" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="351" t="s">
+      <c r="A11" s="786" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="352" t="s">
+      <c r="B11" s="787" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="353" t="s">
+      <c r="C11" s="788" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="354" t="s">
+      <c r="A12" s="789" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="355" t="s">
+      <c r="B12" s="790" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="356" t="s">
+      <c r="C12" s="791" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="357" t="s">
+      <c r="A13" s="792" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="358" t="s">
+      <c r="B13" s="793" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="359" t="s">
+      <c r="C13" s="794" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="360" t="s">
+      <c r="A14" s="795" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="361" t="s">
+      <c r="B14" s="796" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="362" t="s">
+      <c r="C14" s="797" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="363" t="s">
+      <c r="A15" s="798" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="364" t="s">
+      <c r="B15" s="799" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="365" t="s">
+      <c r="C15" s="800" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="378" t="s">
+      <c r="A16" s="813" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="379" t="s">
+      <c r="B16" s="814" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="380" t="s">
+      <c r="C16" s="815" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="381" t="s">
+      <c r="A17" s="816" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="382" t="s">
+      <c r="B17" s="817" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="383" t="s">
+      <c r="C17" s="818" t="s">
         <v>46</v>
       </c>
     </row>
@@ -13543,183 +18985,183 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="678" t="s">
+      <c r="A1" s="968" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="674" t="s">
+      <c r="A2" s="964" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="675" t="s">
+      <c r="B2" s="965" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="676" t="s">
+      <c r="C2" s="966" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="617" t="s">
+      <c r="A3" s="907" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="618" t="s">
+      <c r="B3" s="908" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="619" t="s">
+      <c r="C3" s="909" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="620" t="s">
+      <c r="A4" s="910" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="621" t="s">
+      <c r="B4" s="911" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="622" t="s">
+      <c r="C4" s="912" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="623" t="s">
+      <c r="A5" s="913" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="624" t="s">
+      <c r="B5" s="914" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="625" t="s">
+      <c r="C5" s="915" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="626" t="s">
+      <c r="A6" s="916" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="627" t="s">
+      <c r="B6" s="917" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="628" t="s">
+      <c r="C6" s="918" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="629" t="s">
+      <c r="A7" s="919" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="630" t="s">
+      <c r="B7" s="920" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="631" t="s">
+      <c r="C7" s="921" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="632" t="s">
+      <c r="A8" s="922" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="633" t="s">
+      <c r="B8" s="923" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="634" t="s">
+      <c r="C8" s="924" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="635" t="s">
+      <c r="A9" s="925" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="636" t="s">
+      <c r="B9" s="926" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="637" t="s">
+      <c r="C9" s="927" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="638" t="s">
+      <c r="A10" s="928" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="639" t="s">
+      <c r="B10" s="929" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="640" t="s">
+      <c r="C10" s="930" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="641" t="s">
+      <c r="A11" s="931" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="642" t="s">
+      <c r="B11" s="932" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="643" t="s">
+      <c r="C11" s="933" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="644" t="s">
+      <c r="A12" s="934" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="645" t="s">
+      <c r="B12" s="935" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="646" t="s">
+      <c r="C12" s="936" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="647" t="s">
+      <c r="A13" s="937" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="648" t="s">
+      <c r="B13" s="938" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="649" t="s">
+      <c r="C13" s="939" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="650" t="s">
+      <c r="A14" s="940" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="651" t="s">
+      <c r="B14" s="941" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="652" t="s">
+      <c r="C14" s="942" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="653" t="s">
+      <c r="A15" s="943" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="654" t="s">
+      <c r="B15" s="944" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="655" t="s">
+      <c r="C15" s="945" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="668" t="s">
+      <c r="A16" s="958" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="669" t="s">
+      <c r="B16" s="959" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="670" t="s">
+      <c r="C16" s="960" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="671" t="s">
+      <c r="A17" s="961" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="672" t="s">
+      <c r="B17" s="962" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="673" t="s">
+      <c r="C17" s="963" t="s">
         <v>61</v>
       </c>
     </row>
